--- a/ListasDatos/Santiago Hernández Mariana_2021.xlsx
+++ b/ListasDatos/Santiago Hernández Mariana_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="521">
   <si>
     <t>NC</t>
   </si>
@@ -395,6 +395,9 @@
     <t>berenicegarciavaliente@gmail.com</t>
   </si>
   <si>
+    <t>HERNANDEZCARRILLOA@OUTLOOK.COM</t>
+  </si>
+  <si>
     <t>mayleshernan@gmail.com</t>
   </si>
   <si>
@@ -518,6 +521,9 @@
     <t>2722361626</t>
   </si>
   <si>
+    <t>2721908175</t>
+  </si>
+  <si>
     <t>2722826842</t>
   </si>
   <si>
@@ -617,6 +623,9 @@
     <t>2721163564</t>
   </si>
   <si>
+    <t>2722828345</t>
+  </si>
+  <si>
     <t>2726883777</t>
   </si>
   <si>
@@ -674,6 +683,309 @@
     <t>2722277467</t>
   </si>
   <si>
+    <t>GABRIELA LOPEZ BAUTISTA</t>
+  </si>
+  <si>
+    <t>MARIA CRISTAL CHACÓN CARRERA</t>
+  </si>
+  <si>
+    <t>VICTOR ARMANDO CABALLERO VELÁZQUEZ</t>
+  </si>
+  <si>
+    <t>SAMANTHA BELEM RUIZ CRUZ</t>
+  </si>
+  <si>
+    <t>DALIA DEL CARMEN VELASCO REYES</t>
+  </si>
+  <si>
+    <t>FEDERICO ESPIRITU MARTINEZ</t>
+  </si>
+  <si>
+    <t>JULIA HERNÁNDEZ PETRA</t>
+  </si>
+  <si>
+    <t>FERNANDA LAGUNES LUCAS</t>
+  </si>
+  <si>
+    <t>MARÍA DE JESÚS GÓNZALEZ TAPÍA</t>
+  </si>
+  <si>
+    <t>ROSA MARIA VALIENTE MARTINEZ</t>
+  </si>
+  <si>
+    <t>FABIOLA CARRILLO RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>LIDIA HERNANDEZ CAMPOS</t>
+  </si>
+  <si>
+    <t>ESTEBAN HERNANDEZ FIGUEIRAS</t>
+  </si>
+  <si>
+    <t>ISIDRA SALINAS GUZMAN</t>
+  </si>
+  <si>
+    <t>ALVARO JIMÉNEZ ROMERO</t>
+  </si>
+  <si>
+    <t>PATRICIA DE LA LUZ LOPEZ</t>
+  </si>
+  <si>
+    <t>MARIA DEL CARMEN GONZALEZ LUNA</t>
+  </si>
+  <si>
+    <t>SARA RIVERA MARTINEZ</t>
+  </si>
+  <si>
+    <t>LLERI ANGELICA CADENA AVIÑA</t>
+  </si>
+  <si>
+    <t>MARÍA EPIFANIA IXMATLAHUA XOTLANIHUA</t>
+  </si>
+  <si>
+    <t>LAURA ALONDRA RODRIGUEZ IGNACIO</t>
+  </si>
+  <si>
+    <t>BALDEMAR MOLOHUA COTLAME</t>
+  </si>
+  <si>
+    <t>ISABEL HERNANDEZ BARCENA</t>
+  </si>
+  <si>
+    <t>JOSÉ ALBERTO OLIVARES PÉREZ</t>
+  </si>
+  <si>
+    <t>VICTORIA ROJAS VELAZQUEZ</t>
+  </si>
+  <si>
+    <t>MARÍA IRENE BRAVO GONZALEZ</t>
+  </si>
+  <si>
+    <t>PAULINA DE LA CRUZ XILOHUA</t>
+  </si>
+  <si>
+    <t>JAIME LUCIO PEREZ VENTURA</t>
+  </si>
+  <si>
+    <t>JESÚS CLAUDIO PELLICO ARIAS</t>
+  </si>
+  <si>
+    <t>FATIMA GUADALUPE MARTINEZ VELAZCO</t>
+  </si>
+  <si>
+    <t>IRMA LUNA OSORIO</t>
+  </si>
+  <si>
+    <t>TOMASA MORENO PEMEZA</t>
+  </si>
+  <si>
+    <t>VERONICA ROMERO RAMIREZ</t>
+  </si>
+  <si>
+    <t>CONSTANTINA SANCHEZ DURAN</t>
+  </si>
+  <si>
+    <t>FORTINO SANCHEZ ISIDRO</t>
+  </si>
+  <si>
+    <t>ALMA NANCY MARTINEZ MARTINEZ</t>
+  </si>
+  <si>
+    <t>PAULA QUIÑONES ROSALES</t>
+  </si>
+  <si>
+    <t>DULCE DE LA CONCEPCIÓN SOLANO MENA</t>
+  </si>
+  <si>
+    <t>SILVIA PORRAS CASTRO</t>
+  </si>
+  <si>
+    <t>EUSTACIO TENTZOHUA HERNÁNDEZ</t>
+  </si>
+  <si>
+    <t>CLAUDIA GEORGINA VAZQUEZ LINARES</t>
+  </si>
+  <si>
+    <t>RODOLFO JAYR VAZQUEZ VERA</t>
+  </si>
+  <si>
+    <t>FELIPE FIDEL VILLA ACEVEDO</t>
+  </si>
+  <si>
+    <t>gabrielalopezbautistac073@gmail.com</t>
+  </si>
+  <si>
+    <t>cristal0584@gmail.com</t>
+  </si>
+  <si>
+    <t>samantha._belem.98@gmail.com</t>
+  </si>
+  <si>
+    <t>federico_espmat@hotmail.com</t>
+  </si>
+  <si>
+    <t>Anameyer73@gmail.com</t>
+  </si>
+  <si>
+    <t>Yesca666213@gmail.com</t>
+  </si>
+  <si>
+    <t>mariadejesusgonzaleztapia18@gamail.com</t>
+  </si>
+  <si>
+    <t>rosamariavm456@gmail.com</t>
+  </si>
+  <si>
+    <t>CUICAHUA@OUTLOOK.ES</t>
+  </si>
+  <si>
+    <t>lihecam@gmail.com</t>
+  </si>
+  <si>
+    <t>estevanhermandez68@gmail.com</t>
+  </si>
+  <si>
+    <t>Isisalguzman@gmail.com</t>
+  </si>
+  <si>
+    <t>reginadejesussanchez@gmail.com</t>
+  </si>
+  <si>
+    <t>cadenaangelica829@gmail.com</t>
+  </si>
+  <si>
+    <t>maryixmatlahua3745@gmail.com</t>
+  </si>
+  <si>
+    <t>rodriguezlauraalondra390@gmail.com</t>
+  </si>
+  <si>
+    <t>Sanztere123@gmail.com</t>
+  </si>
+  <si>
+    <t>isabelherba8@gmail.com</t>
+  </si>
+  <si>
+    <t>jaolivaresp1576@gmail.com</t>
+  </si>
+  <si>
+    <t>palomaresgonzalezoctavio@gmail.com</t>
+  </si>
+  <si>
+    <t>mairenbg2128@gmail.com</t>
+  </si>
+  <si>
+    <t>Jaime3004pv@gmail.com</t>
+  </si>
+  <si>
+    <t>jazminpellico1@gmail.com</t>
+  </si>
+  <si>
+    <t>ivonneperezluna08@gmail.com</t>
+  </si>
+  <si>
+    <t>Veronicaromeroramirez67@gmail.com</t>
+  </si>
+  <si>
+    <t>kimrugerio62@gmail.com</t>
+  </si>
+  <si>
+    <t>Almanancymartinezz@gmail.com</t>
+  </si>
+  <si>
+    <t>Paupau40284@gmail.com</t>
+  </si>
+  <si>
+    <t>ds1276064@hotmail.com</t>
+  </si>
+  <si>
+    <t>miguelmix489@gmail.com</t>
+  </si>
+  <si>
+    <t>fidelvilla2012@hotmail.es</t>
+  </si>
+  <si>
+    <t>2721308755</t>
+  </si>
+  <si>
+    <t>2722240321</t>
+  </si>
+  <si>
+    <t>2721245979</t>
+  </si>
+  <si>
+    <t>2722957669</t>
+  </si>
+  <si>
+    <t>2722237781</t>
+  </si>
+  <si>
+    <t>2722064762</t>
+  </si>
+  <si>
+    <t>2722147160</t>
+  </si>
+  <si>
+    <t>2721243262</t>
+  </si>
+  <si>
+    <t>2722641275</t>
+  </si>
+  <si>
+    <t>2294930901</t>
+  </si>
+  <si>
+    <t>2723351967</t>
+  </si>
+  <si>
+    <t>2722260619</t>
+  </si>
+  <si>
+    <t>2721171814</t>
+  </si>
+  <si>
+    <t>2721276972</t>
+  </si>
+  <si>
+    <t>2722258862</t>
+  </si>
+  <si>
+    <t>2722815799</t>
+  </si>
+  <si>
+    <t>2715933704</t>
+  </si>
+  <si>
+    <t>2722614976</t>
+  </si>
+  <si>
+    <t>2722279801</t>
+  </si>
+  <si>
+    <t>2721278588</t>
+  </si>
+  <si>
+    <t>2761036110</t>
+  </si>
+  <si>
+    <t>2721353893</t>
+  </si>
+  <si>
+    <t>2721870321</t>
+  </si>
+  <si>
+    <t>2727012438</t>
+  </si>
+  <si>
+    <t>2721981020</t>
+  </si>
+  <si>
+    <t>2721008760</t>
+  </si>
+  <si>
+    <t>2727238189</t>
+  </si>
+  <si>
     <t>BARRAGAN</t>
   </si>
   <si>
@@ -1061,13 +1373,211 @@
     <t>2721712088</t>
   </si>
   <si>
+    <t>NICOLASA SAVALA PELAYO</t>
+  </si>
+  <si>
+    <t>ANDRES BARRAGAN SANTOS</t>
+  </si>
+  <si>
+    <t>MARIA RAMÍREZ RAMÍREZ</t>
+  </si>
+  <si>
+    <t>EUSTOLIA HERNANDEZ SUAREZ</t>
+  </si>
+  <si>
+    <t>ROSA TZOMPAXTLE CERÓN</t>
+  </si>
+  <si>
+    <t>GLORIA PINEDA GARCÍA</t>
+  </si>
+  <si>
+    <t>LUZ VIANNEY MARCELINO VAZQUEZ</t>
+  </si>
+  <si>
+    <t>GLADIS ALEJANDRA MONTAVO CHACÓN</t>
+  </si>
+  <si>
+    <t>SARA VILLA LUNA</t>
+  </si>
+  <si>
+    <t>MARÍA DE JESÚS GONZÁLEZ TAPÍA</t>
+  </si>
+  <si>
+    <t>KARINA GUADALUPE PEREZ SAN JUAN</t>
+  </si>
+  <si>
+    <t>ANDRES GARCIA MONTIEL</t>
+  </si>
+  <si>
     <t>HEIDI AMELIA CAPORAL MORALES</t>
   </si>
   <si>
+    <t>JESUS SILVANO HERNANDEZ GARCIA</t>
+  </si>
+  <si>
+    <t>ESPERANZA LIBRADO CORONADA</t>
+  </si>
+  <si>
+    <t>MARCOS LUNA GARCIA</t>
+  </si>
+  <si>
+    <t>ELIZABETH FLORES GARCÍA</t>
+  </si>
+  <si>
+    <t>MARIA LUCRECIA RODRIGUEZ MORENO</t>
+  </si>
+  <si>
+    <t>HECTOR AURELIO MONT SARMIENTO</t>
+  </si>
+  <si>
+    <t>ALMA DELIA FLORES SAN PEDRO</t>
+  </si>
+  <si>
+    <t>ELSA JASMIN PAZ GONZALEZ</t>
+  </si>
+  <si>
+    <t>ASUNCIÓN CASTILLO HERNÁNDEZ</t>
+  </si>
+  <si>
+    <t>JOSE ANTONIO QUERO RIVERA</t>
+  </si>
+  <si>
+    <t>KATIE MAGDALENA VILLEGAS GARRIDO</t>
+  </si>
+  <si>
+    <t>NATIVIDAD TLAXCALTECA RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>SOCORRO ARELLANO BERNABE</t>
+  </si>
+  <si>
+    <t>ELENA OLGA CASTRO MELCHOR</t>
+  </si>
+  <si>
+    <t>ANA GABRIELA MONTIEL AGUILAR</t>
+  </si>
+  <si>
+    <t>MARCELA FELICITAS XOTLANIHUA COLOHUA</t>
+  </si>
+  <si>
+    <t>diego123ramirez@icloud.com</t>
+  </si>
+  <si>
+    <t>eushernandez93@gmail.com</t>
+  </si>
+  <si>
+    <t>rousgartzg@gmail.com</t>
+  </si>
+  <si>
+    <t>Gloriapineda8121@gmail.com</t>
+  </si>
+  <si>
+    <t>luxviann1626@gmail.com</t>
+  </si>
+  <si>
+    <t>mariadejesusgonzaleztapia18@gmail.com</t>
+  </si>
+  <si>
     <t>franciscologan736@gmail.com</t>
   </si>
   <si>
+    <t>hildahernandez0011@gmail.com</t>
+  </si>
+  <si>
+    <t>esperanzacoronado795@gmail.com</t>
+  </si>
+  <si>
+    <t>distribuidor.imperio@gmail.com</t>
+  </si>
+  <si>
+    <t>elizabethflores110181@gmail.com</t>
+  </si>
+  <si>
+    <t>montlunah@gmail.com</t>
+  </si>
+  <si>
+    <t>elsajasminpaz@gmail.com</t>
+  </si>
+  <si>
+    <t>asuncast1508@gmail.com</t>
+  </si>
+  <si>
+    <t>fanasa122@gmail.com</t>
+  </si>
+  <si>
+    <t>abrilreyes353@gmail.com</t>
+  </si>
+  <si>
+    <t>socorroarellano410@gmail.com</t>
+  </si>
+  <si>
+    <t>elenaolgac05@hotmail.com</t>
+  </si>
+  <si>
+    <t>anagabrielamontielaguilar@gmil.com</t>
+  </si>
+  <si>
+    <t>marce_felicitas@hotmeil.com</t>
+  </si>
+  <si>
+    <t>2721149969</t>
+  </si>
+  <si>
+    <t>272207941q</t>
+  </si>
+  <si>
+    <t>2721875959</t>
+  </si>
+  <si>
+    <t>2722249426</t>
+  </si>
+  <si>
+    <t>2722973644</t>
+  </si>
+  <si>
+    <t>2721877112</t>
+  </si>
+  <si>
+    <t>2722337781</t>
+  </si>
+  <si>
+    <t>2721349831</t>
+  </si>
+  <si>
+    <t>2721428630</t>
+  </si>
+  <si>
     <t>27223064448</t>
+  </si>
+  <si>
+    <t>2721466616</t>
+  </si>
+  <si>
+    <t>2721968779</t>
+  </si>
+  <si>
+    <t>2727210379</t>
+  </si>
+  <si>
+    <t>2721991474</t>
+  </si>
+  <si>
+    <t>2722600364</t>
+  </si>
+  <si>
+    <t>2721567675</t>
+  </si>
+  <si>
+    <t>2721981229</t>
+  </si>
+  <si>
+    <t>2722229520</t>
+  </si>
+  <si>
+    <t>2721680521</t>
+  </si>
+  <si>
+    <t>2721312391</t>
   </si>
 </sst>
 </file>
@@ -1489,10 +1999,19 @@
         <v>116</v>
       </c>
       <c r="F2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G2" t="s">
-        <v>196</v>
+        <v>198</v>
+      </c>
+      <c r="H2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I2" t="s">
+        <v>265</v>
+      </c>
+      <c r="J2" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1512,7 +2031,16 @@
         <v>117</v>
       </c>
       <c r="F3" t="s">
-        <v>159</v>
+        <v>160</v>
+      </c>
+      <c r="H3" t="s">
+        <v>223</v>
+      </c>
+      <c r="I3" t="s">
+        <v>266</v>
+      </c>
+      <c r="J3" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1532,7 +2060,16 @@
         <v>118</v>
       </c>
       <c r="F4" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="H4" t="s">
+        <v>224</v>
+      </c>
+      <c r="I4" t="s">
+        <v>118</v>
+      </c>
+      <c r="J4" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1552,10 +2089,19 @@
         <v>119</v>
       </c>
       <c r="F5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G5" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="H5" t="s">
+        <v>225</v>
+      </c>
+      <c r="I5" t="s">
+        <v>267</v>
+      </c>
+      <c r="J5" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1575,7 +2121,13 @@
         <v>120</v>
       </c>
       <c r="G6" t="s">
-        <v>197</v>
+        <v>199</v>
+      </c>
+      <c r="H6" t="s">
+        <v>226</v>
+      </c>
+      <c r="J6" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1595,7 +2147,16 @@
         <v>121</v>
       </c>
       <c r="F7" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="H7" t="s">
+        <v>227</v>
+      </c>
+      <c r="I7" t="s">
+        <v>268</v>
+      </c>
+      <c r="J7" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1615,7 +2176,16 @@
         <v>122</v>
       </c>
       <c r="F8" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="H8" t="s">
+        <v>228</v>
+      </c>
+      <c r="I8" t="s">
+        <v>269</v>
+      </c>
+      <c r="J8" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1635,10 +2205,19 @@
         <v>123</v>
       </c>
       <c r="F9" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G9" t="s">
-        <v>198</v>
+        <v>200</v>
+      </c>
+      <c r="H9" t="s">
+        <v>229</v>
+      </c>
+      <c r="I9" t="s">
+        <v>270</v>
+      </c>
+      <c r="J9" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1658,7 +2237,16 @@
         <v>124</v>
       </c>
       <c r="F10" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="H10" t="s">
+        <v>230</v>
+      </c>
+      <c r="I10" t="s">
+        <v>271</v>
+      </c>
+      <c r="J10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1678,10 +2266,19 @@
         <v>125</v>
       </c>
       <c r="F11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G11" t="s">
-        <v>199</v>
+        <v>201</v>
+      </c>
+      <c r="H11" t="s">
+        <v>231</v>
+      </c>
+      <c r="I11" t="s">
+        <v>272</v>
+      </c>
+      <c r="J11" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1697,6 +2294,24 @@
       <c r="D12" t="s">
         <v>84</v>
       </c>
+      <c r="E12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F12" t="s">
+        <v>168</v>
+      </c>
+      <c r="G12" t="s">
+        <v>202</v>
+      </c>
+      <c r="H12" t="s">
+        <v>232</v>
+      </c>
+      <c r="I12" t="s">
+        <v>273</v>
+      </c>
+      <c r="J12" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13">
@@ -1712,13 +2327,22 @@
         <v>81</v>
       </c>
       <c r="E13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F13" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G13" t="s">
-        <v>200</v>
+        <v>203</v>
+      </c>
+      <c r="H13" t="s">
+        <v>233</v>
+      </c>
+      <c r="I13" t="s">
+        <v>274</v>
+      </c>
+      <c r="J13" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1735,13 +2359,22 @@
         <v>85</v>
       </c>
       <c r="E14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F14" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G14" t="s">
-        <v>201</v>
+        <v>204</v>
+      </c>
+      <c r="H14" t="s">
+        <v>234</v>
+      </c>
+      <c r="I14" t="s">
+        <v>275</v>
+      </c>
+      <c r="J14" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1758,13 +2391,22 @@
         <v>86</v>
       </c>
       <c r="E15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F15" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G15" t="s">
-        <v>202</v>
+        <v>205</v>
+      </c>
+      <c r="H15" t="s">
+        <v>235</v>
+      </c>
+      <c r="I15" t="s">
+        <v>276</v>
+      </c>
+      <c r="J15" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1781,16 +2423,25 @@
         <v>87</v>
       </c>
       <c r="E16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F16" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G16" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>172</v>
+      </c>
+      <c r="H16" t="s">
+        <v>236</v>
+      </c>
+      <c r="I16" t="s">
+        <v>277</v>
+      </c>
+      <c r="J16" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>21330051920084</v>
       </c>
@@ -1804,13 +2455,19 @@
         <v>88</v>
       </c>
       <c r="E17" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G17" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>206</v>
+      </c>
+      <c r="H17" t="s">
+        <v>237</v>
+      </c>
+      <c r="J17" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>21330051920085</v>
       </c>
@@ -1824,16 +2481,22 @@
         <v>89</v>
       </c>
       <c r="E18" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F18" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G18" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>207</v>
+      </c>
+      <c r="H18" t="s">
+        <v>238</v>
+      </c>
+      <c r="J18" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>21330051920086</v>
       </c>
@@ -1847,16 +2510,22 @@
         <v>90</v>
       </c>
       <c r="E19" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F19" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G19" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>174</v>
+      </c>
+      <c r="H19" t="s">
+        <v>239</v>
+      </c>
+      <c r="J19" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>21330051920087</v>
       </c>
@@ -1870,16 +2539,25 @@
         <v>91</v>
       </c>
       <c r="E20" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F20" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G20" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>208</v>
+      </c>
+      <c r="H20" t="s">
+        <v>240</v>
+      </c>
+      <c r="I20" t="s">
+        <v>278</v>
+      </c>
+      <c r="J20" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>21330051920088</v>
       </c>
@@ -1893,16 +2571,25 @@
         <v>92</v>
       </c>
       <c r="E21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F21" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G21" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>176</v>
+      </c>
+      <c r="H21" t="s">
+        <v>241</v>
+      </c>
+      <c r="I21" t="s">
+        <v>279</v>
+      </c>
+      <c r="J21" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22">
         <v>21330051920089</v>
       </c>
@@ -1916,16 +2603,25 @@
         <v>93</v>
       </c>
       <c r="E22" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F22" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G22" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>209</v>
+      </c>
+      <c r="H22" t="s">
+        <v>242</v>
+      </c>
+      <c r="I22" t="s">
+        <v>280</v>
+      </c>
+      <c r="J22" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23">
         <v>21330051920090</v>
       </c>
@@ -1939,16 +2635,25 @@
         <v>94</v>
       </c>
       <c r="E23" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F23" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G23" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>178</v>
+      </c>
+      <c r="H23" t="s">
+        <v>243</v>
+      </c>
+      <c r="I23" t="s">
+        <v>281</v>
+      </c>
+      <c r="J23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24">
         <v>21330051920091</v>
       </c>
@@ -1962,13 +2667,22 @@
         <v>95</v>
       </c>
       <c r="E24" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F24" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>179</v>
+      </c>
+      <c r="H24" t="s">
+        <v>244</v>
+      </c>
+      <c r="I24" t="s">
+        <v>282</v>
+      </c>
+      <c r="J24" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25">
         <v>21330051920092</v>
       </c>
@@ -1982,16 +2696,25 @@
         <v>96</v>
       </c>
       <c r="E25" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F25" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G25" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>210</v>
+      </c>
+      <c r="H25" t="s">
+        <v>245</v>
+      </c>
+      <c r="I25" t="s">
+        <v>283</v>
+      </c>
+      <c r="J25" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26">
         <v>21330051920093</v>
       </c>
@@ -2005,13 +2728,22 @@
         <v>97</v>
       </c>
       <c r="E26" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F26" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>181</v>
+      </c>
+      <c r="H26" t="s">
+        <v>246</v>
+      </c>
+      <c r="I26" t="s">
+        <v>284</v>
+      </c>
+      <c r="J26" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27">
         <v>21330051920094</v>
       </c>
@@ -2025,16 +2757,25 @@
         <v>98</v>
       </c>
       <c r="E27" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F27" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G27" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>211</v>
+      </c>
+      <c r="H27" t="s">
+        <v>247</v>
+      </c>
+      <c r="I27" t="s">
+        <v>285</v>
+      </c>
+      <c r="J27" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28">
         <v>21330051920095</v>
       </c>
@@ -2048,13 +2789,22 @@
         <v>99</v>
       </c>
       <c r="E28" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F28" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>183</v>
+      </c>
+      <c r="H28" t="s">
+        <v>248</v>
+      </c>
+      <c r="I28" t="s">
+        <v>142</v>
+      </c>
+      <c r="J28" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29">
         <v>21330051920096</v>
       </c>
@@ -2068,13 +2818,22 @@
         <v>100</v>
       </c>
       <c r="E29" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F29" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>184</v>
+      </c>
+      <c r="H29" t="s">
+        <v>249</v>
+      </c>
+      <c r="I29" t="s">
+        <v>286</v>
+      </c>
+      <c r="J29" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30">
         <v>21330051920097</v>
       </c>
@@ -2088,16 +2847,25 @@
         <v>101</v>
       </c>
       <c r="E30" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F30" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G30" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>212</v>
+      </c>
+      <c r="H30" t="s">
+        <v>250</v>
+      </c>
+      <c r="I30" t="s">
+        <v>287</v>
+      </c>
+      <c r="J30" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31">
         <v>21330051920098</v>
       </c>
@@ -2111,13 +2879,19 @@
         <v>102</v>
       </c>
       <c r="E31" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G31" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>213</v>
+      </c>
+      <c r="H31" t="s">
+        <v>251</v>
+      </c>
+      <c r="J31" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32">
         <v>21330051920099</v>
       </c>
@@ -2131,16 +2905,25 @@
         <v>103</v>
       </c>
       <c r="E32" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F32" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G32" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>214</v>
+      </c>
+      <c r="H32" t="s">
+        <v>252</v>
+      </c>
+      <c r="I32" t="s">
+        <v>288</v>
+      </c>
+      <c r="J32" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33">
         <v>21330051920100</v>
       </c>
@@ -2154,13 +2937,19 @@
         <v>104</v>
       </c>
       <c r="E33" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G33" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>215</v>
+      </c>
+      <c r="H33" t="s">
+        <v>253</v>
+      </c>
+      <c r="J33" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34">
         <v>21330051920101</v>
       </c>
@@ -2174,16 +2963,25 @@
         <v>105</v>
       </c>
       <c r="E34" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F34" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G34" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>216</v>
+      </c>
+      <c r="H34" t="s">
+        <v>254</v>
+      </c>
+      <c r="I34" t="s">
+        <v>289</v>
+      </c>
+      <c r="J34" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35">
         <v>21330051920383</v>
       </c>
@@ -2197,13 +2995,22 @@
         <v>106</v>
       </c>
       <c r="E35" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F35" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>188</v>
+      </c>
+      <c r="H35" t="s">
+        <v>255</v>
+      </c>
+      <c r="I35" t="s">
+        <v>290</v>
+      </c>
+      <c r="J35" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36">
         <v>21330051920102</v>
       </c>
@@ -2217,16 +3024,22 @@
         <v>107</v>
       </c>
       <c r="E36" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F36" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G36" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>217</v>
+      </c>
+      <c r="H36" t="s">
+        <v>256</v>
+      </c>
+      <c r="J36" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37">
         <v>21330051920103</v>
       </c>
@@ -2240,16 +3053,25 @@
         <v>108</v>
       </c>
       <c r="E37" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F37" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G37" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>218</v>
+      </c>
+      <c r="H37" t="s">
+        <v>257</v>
+      </c>
+      <c r="I37" t="s">
+        <v>291</v>
+      </c>
+      <c r="J37" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38">
         <v>21330051920104</v>
       </c>
@@ -2263,13 +3085,22 @@
         <v>109</v>
       </c>
       <c r="E38" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F38" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>191</v>
+      </c>
+      <c r="H38" t="s">
+        <v>258</v>
+      </c>
+      <c r="I38" t="s">
+        <v>292</v>
+      </c>
+      <c r="J38" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39">
         <v>21330051920105</v>
       </c>
@@ -2283,16 +3114,25 @@
         <v>110</v>
       </c>
       <c r="E39" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F39" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G39" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>192</v>
+      </c>
+      <c r="H39" t="s">
+        <v>259</v>
+      </c>
+      <c r="I39" t="s">
+        <v>293</v>
+      </c>
+      <c r="J39" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40">
         <v>21330051920106</v>
       </c>
@@ -2306,16 +3146,25 @@
         <v>111</v>
       </c>
       <c r="E40" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F40" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G40" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>219</v>
+      </c>
+      <c r="H40" t="s">
+        <v>260</v>
+      </c>
+      <c r="I40" t="s">
+        <v>154</v>
+      </c>
+      <c r="J40" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41">
         <v>21330051920107</v>
       </c>
@@ -2329,16 +3178,22 @@
         <v>112</v>
       </c>
       <c r="E41" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F41" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G41" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>194</v>
+      </c>
+      <c r="H41" t="s">
+        <v>261</v>
+      </c>
+      <c r="J41" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42">
         <v>21330051920108</v>
       </c>
@@ -2352,16 +3207,25 @@
         <v>113</v>
       </c>
       <c r="E42" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F42" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G42" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>220</v>
+      </c>
+      <c r="H42" t="s">
+        <v>262</v>
+      </c>
+      <c r="I42" t="s">
+        <v>294</v>
+      </c>
+      <c r="J42" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43">
         <v>21330051920109</v>
       </c>
@@ -2375,16 +3239,22 @@
         <v>114</v>
       </c>
       <c r="E43" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F43" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G43" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>221</v>
+      </c>
+      <c r="H43" t="s">
+        <v>263</v>
+      </c>
+      <c r="J43" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44">
         <v>21330051920387</v>
       </c>
@@ -2398,10 +3268,19 @@
         <v>115</v>
       </c>
       <c r="E44" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F44" t="s">
-        <v>195</v>
+        <v>197</v>
+      </c>
+      <c r="H44" t="s">
+        <v>264</v>
+      </c>
+      <c r="I44" t="s">
+        <v>295</v>
+      </c>
+      <c r="J44" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -2466,19 +3345,28 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>237</v>
+        <v>341</v>
       </c>
       <c r="D2" t="s">
-        <v>251</v>
+        <v>355</v>
       </c>
       <c r="E2" t="s">
-        <v>277</v>
+        <v>381</v>
       </c>
       <c r="F2" t="s">
-        <v>306</v>
+        <v>410</v>
       </c>
       <c r="G2" t="s">
-        <v>334</v>
+        <v>438</v>
+      </c>
+      <c r="H2" t="s">
+        <v>452</v>
+      </c>
+      <c r="I2" t="s">
+        <v>381</v>
+      </c>
+      <c r="J2" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2486,22 +3374,28 @@
         <v>21330051920111</v>
       </c>
       <c r="B3" t="s">
-        <v>219</v>
+        <v>323</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>252</v>
+        <v>356</v>
       </c>
       <c r="E3" t="s">
-        <v>278</v>
+        <v>382</v>
       </c>
       <c r="F3" t="s">
-        <v>307</v>
+        <v>411</v>
       </c>
       <c r="G3" t="s">
-        <v>335</v>
+        <v>439</v>
+      </c>
+      <c r="H3" t="s">
+        <v>453</v>
+      </c>
+      <c r="J3" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2509,19 +3403,28 @@
         <v>21330051920112</v>
       </c>
       <c r="B4" t="s">
-        <v>220</v>
+        <v>324</v>
       </c>
       <c r="C4" t="s">
         <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>253</v>
+        <v>357</v>
       </c>
       <c r="E4" t="s">
-        <v>279</v>
+        <v>383</v>
       </c>
       <c r="F4" t="s">
-        <v>308</v>
+        <v>412</v>
+      </c>
+      <c r="H4" t="s">
+        <v>454</v>
+      </c>
+      <c r="I4" t="s">
+        <v>481</v>
+      </c>
+      <c r="J4" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2529,22 +3432,31 @@
         <v>21330051920113</v>
       </c>
       <c r="B5" t="s">
-        <v>221</v>
+        <v>325</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>254</v>
+        <v>358</v>
       </c>
       <c r="E5" t="s">
-        <v>280</v>
+        <v>384</v>
       </c>
       <c r="F5" t="s">
-        <v>309</v>
+        <v>413</v>
       </c>
       <c r="G5" t="s">
-        <v>336</v>
+        <v>440</v>
+      </c>
+      <c r="H5" t="s">
+        <v>455</v>
+      </c>
+      <c r="I5" t="s">
+        <v>482</v>
+      </c>
+      <c r="J5" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2555,16 +3467,25 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>238</v>
+        <v>342</v>
       </c>
       <c r="D6" t="s">
         <v>114</v>
       </c>
       <c r="E6" t="s">
-        <v>281</v>
+        <v>385</v>
       </c>
       <c r="F6" t="s">
-        <v>310</v>
+        <v>414</v>
+      </c>
+      <c r="H6" t="s">
+        <v>456</v>
+      </c>
+      <c r="I6" t="s">
+        <v>483</v>
+      </c>
+      <c r="J6" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2575,19 +3496,28 @@
         <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>239</v>
+        <v>343</v>
       </c>
       <c r="D7" t="s">
-        <v>255</v>
+        <v>359</v>
       </c>
       <c r="E7" t="s">
-        <v>282</v>
+        <v>386</v>
       </c>
       <c r="F7" t="s">
-        <v>311</v>
+        <v>415</v>
       </c>
       <c r="G7" t="s">
-        <v>337</v>
+        <v>441</v>
+      </c>
+      <c r="H7" t="s">
+        <v>457</v>
+      </c>
+      <c r="I7" t="s">
+        <v>484</v>
+      </c>
+      <c r="J7" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2595,19 +3525,28 @@
         <v>21330051920116</v>
       </c>
       <c r="B8" t="s">
-        <v>222</v>
+        <v>326</v>
       </c>
       <c r="C8" t="s">
-        <v>240</v>
+        <v>344</v>
       </c>
       <c r="D8" t="s">
-        <v>256</v>
+        <v>360</v>
       </c>
       <c r="E8" t="s">
-        <v>283</v>
+        <v>387</v>
       </c>
       <c r="F8" t="s">
-        <v>312</v>
+        <v>416</v>
+      </c>
+      <c r="H8" t="s">
+        <v>458</v>
+      </c>
+      <c r="I8" t="s">
+        <v>485</v>
+      </c>
+      <c r="J8" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2615,19 +3554,25 @@
         <v>21330051920117</v>
       </c>
       <c r="B9" t="s">
-        <v>223</v>
+        <v>327</v>
       </c>
       <c r="C9" t="s">
-        <v>241</v>
+        <v>345</v>
       </c>
       <c r="D9" t="s">
-        <v>257</v>
+        <v>361</v>
       </c>
       <c r="E9" t="s">
-        <v>284</v>
+        <v>388</v>
       </c>
       <c r="G9" t="s">
-        <v>338</v>
+        <v>442</v>
+      </c>
+      <c r="H9" t="s">
+        <v>459</v>
+      </c>
+      <c r="J9" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2641,16 +3586,22 @@
         <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>253</v>
+        <v>357</v>
       </c>
       <c r="E10" t="s">
-        <v>285</v>
+        <v>389</v>
       </c>
       <c r="F10" t="s">
-        <v>313</v>
+        <v>417</v>
       </c>
       <c r="G10" t="s">
-        <v>339</v>
+        <v>443</v>
+      </c>
+      <c r="H10" t="s">
+        <v>460</v>
+      </c>
+      <c r="J10" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2664,13 +3615,22 @@
         <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>258</v>
+        <v>362</v>
       </c>
       <c r="E11" t="s">
-        <v>286</v>
+        <v>390</v>
       </c>
       <c r="F11" t="s">
-        <v>314</v>
+        <v>418</v>
+      </c>
+      <c r="H11" t="s">
+        <v>461</v>
+      </c>
+      <c r="I11" t="s">
+        <v>486</v>
+      </c>
+      <c r="J11" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2684,16 +3644,22 @@
         <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>259</v>
+        <v>363</v>
       </c>
       <c r="E12" t="s">
-        <v>287</v>
+        <v>391</v>
       </c>
       <c r="F12" t="s">
-        <v>315</v>
+        <v>419</v>
       </c>
       <c r="G12" t="s">
-        <v>340</v>
+        <v>444</v>
+      </c>
+      <c r="H12" t="s">
+        <v>462</v>
+      </c>
+      <c r="J12" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -2707,16 +3673,25 @@
         <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>260</v>
+        <v>364</v>
       </c>
       <c r="E13" t="s">
-        <v>288</v>
+        <v>392</v>
       </c>
       <c r="F13" t="s">
-        <v>316</v>
+        <v>420</v>
       </c>
       <c r="G13" t="s">
-        <v>341</v>
+        <v>445</v>
+      </c>
+      <c r="H13" t="s">
+        <v>463</v>
+      </c>
+      <c r="I13" t="s">
+        <v>392</v>
+      </c>
+      <c r="J13" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -2724,28 +3699,28 @@
         <v>21330051920391</v>
       </c>
       <c r="B14" t="s">
-        <v>224</v>
+        <v>328</v>
       </c>
       <c r="C14" t="s">
-        <v>242</v>
+        <v>346</v>
       </c>
       <c r="D14" t="s">
-        <v>261</v>
+        <v>365</v>
       </c>
       <c r="E14" t="s">
-        <v>289</v>
+        <v>393</v>
       </c>
       <c r="F14" t="s">
-        <v>317</v>
+        <v>421</v>
       </c>
       <c r="H14" t="s">
-        <v>348</v>
+        <v>464</v>
       </c>
       <c r="I14" t="s">
-        <v>349</v>
+        <v>487</v>
       </c>
       <c r="J14" t="s">
-        <v>350</v>
+        <v>510</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -2759,16 +3734,25 @@
         <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>262</v>
+        <v>366</v>
       </c>
       <c r="E15" t="s">
-        <v>290</v>
+        <v>394</v>
       </c>
       <c r="F15" t="s">
-        <v>318</v>
+        <v>422</v>
       </c>
       <c r="G15" t="s">
-        <v>318</v>
+        <v>422</v>
+      </c>
+      <c r="H15" t="s">
+        <v>465</v>
+      </c>
+      <c r="I15" t="s">
+        <v>488</v>
+      </c>
+      <c r="J15" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2776,48 +3760,66 @@
         <v>21330051920123</v>
       </c>
       <c r="B16" t="s">
-        <v>225</v>
+        <v>329</v>
       </c>
       <c r="C16" t="s">
-        <v>243</v>
+        <v>347</v>
       </c>
       <c r="D16" t="s">
-        <v>263</v>
+        <v>367</v>
       </c>
       <c r="E16" t="s">
-        <v>291</v>
+        <v>395</v>
       </c>
       <c r="F16" t="s">
-        <v>319</v>
+        <v>423</v>
       </c>
       <c r="G16" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>423</v>
+      </c>
+      <c r="H16" t="s">
+        <v>466</v>
+      </c>
+      <c r="I16" t="s">
+        <v>489</v>
+      </c>
+      <c r="J16" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>21330051920124</v>
       </c>
       <c r="B17" t="s">
-        <v>226</v>
+        <v>330</v>
       </c>
       <c r="C17" t="s">
-        <v>244</v>
+        <v>348</v>
       </c>
       <c r="D17" t="s">
-        <v>264</v>
+        <v>368</v>
       </c>
       <c r="E17" t="s">
-        <v>292</v>
+        <v>396</v>
       </c>
       <c r="F17" t="s">
-        <v>320</v>
+        <v>424</v>
       </c>
       <c r="G17" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>446</v>
+      </c>
+      <c r="H17" t="s">
+        <v>467</v>
+      </c>
+      <c r="I17" t="s">
+        <v>490</v>
+      </c>
+      <c r="J17" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>21330051920125</v>
       </c>
@@ -2828,194 +3830,275 @@
         <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>265</v>
+        <v>369</v>
       </c>
       <c r="E18" t="s">
-        <v>293</v>
+        <v>397</v>
       </c>
       <c r="F18" t="s">
-        <v>321</v>
+        <v>425</v>
       </c>
       <c r="G18" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>447</v>
+      </c>
+      <c r="H18" t="s">
+        <v>468</v>
+      </c>
+      <c r="I18" t="s">
+        <v>491</v>
+      </c>
+      <c r="J18" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>21330051920126</v>
       </c>
       <c r="B19" t="s">
-        <v>227</v>
+        <v>331</v>
       </c>
       <c r="C19" t="s">
         <v>58</v>
       </c>
       <c r="D19" t="s">
-        <v>266</v>
+        <v>370</v>
       </c>
       <c r="E19" t="s">
-        <v>294</v>
+        <v>398</v>
       </c>
       <c r="F19" t="s">
-        <v>322</v>
+        <v>426</v>
       </c>
       <c r="G19" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>448</v>
+      </c>
+      <c r="H19" t="s">
+        <v>469</v>
+      </c>
+      <c r="I19" t="s">
+        <v>398</v>
+      </c>
+      <c r="J19" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>21330051920127</v>
       </c>
       <c r="B20" t="s">
-        <v>228</v>
+        <v>332</v>
       </c>
       <c r="C20" t="s">
         <v>61</v>
       </c>
       <c r="D20" t="s">
-        <v>267</v>
+        <v>371</v>
       </c>
       <c r="E20" t="s">
-        <v>295</v>
+        <v>399</v>
       </c>
       <c r="F20" t="s">
-        <v>323</v>
+        <v>427</v>
       </c>
       <c r="G20" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>449</v>
+      </c>
+      <c r="H20" t="s">
+        <v>470</v>
+      </c>
+      <c r="I20" t="s">
+        <v>492</v>
+      </c>
+      <c r="J20" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>20330051920275</v>
       </c>
       <c r="B21" t="s">
-        <v>229</v>
+        <v>333</v>
       </c>
       <c r="C21" t="s">
         <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>268</v>
+        <v>372</v>
       </c>
       <c r="E21" t="s">
-        <v>296</v>
+        <v>400</v>
       </c>
       <c r="F21" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>428</v>
+      </c>
+      <c r="H21" t="s">
+        <v>471</v>
+      </c>
+      <c r="I21" t="s">
+        <v>400</v>
+      </c>
+      <c r="J21" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22">
         <v>21330051920128</v>
       </c>
       <c r="B22" t="s">
-        <v>230</v>
+        <v>334</v>
       </c>
       <c r="C22" t="s">
         <v>63</v>
       </c>
       <c r="D22" t="s">
-        <v>269</v>
+        <v>373</v>
       </c>
       <c r="E22" t="s">
-        <v>297</v>
+        <v>401</v>
       </c>
       <c r="F22" t="s">
-        <v>325</v>
+        <v>429</v>
       </c>
       <c r="G22" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>450</v>
+      </c>
+      <c r="H22" t="s">
+        <v>472</v>
+      </c>
+      <c r="I22" t="s">
+        <v>493</v>
+      </c>
+      <c r="J22" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23">
         <v>21330051920129</v>
       </c>
       <c r="C23" t="s">
-        <v>245</v>
+        <v>349</v>
       </c>
       <c r="D23" t="s">
-        <v>270</v>
+        <v>374</v>
       </c>
       <c r="E23" t="s">
-        <v>298</v>
+        <v>402</v>
       </c>
       <c r="F23" t="s">
-        <v>326</v>
+        <v>430</v>
       </c>
       <c r="G23" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>430</v>
+      </c>
+      <c r="H23" t="s">
+        <v>473</v>
+      </c>
+      <c r="I23" t="s">
+        <v>494</v>
+      </c>
+      <c r="J23" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24">
         <v>21330051920130</v>
       </c>
       <c r="B24" t="s">
-        <v>231</v>
+        <v>335</v>
       </c>
       <c r="C24" t="s">
-        <v>246</v>
+        <v>350</v>
       </c>
       <c r="D24" t="s">
-        <v>271</v>
+        <v>375</v>
       </c>
       <c r="E24" t="s">
-        <v>299</v>
+        <v>403</v>
       </c>
       <c r="F24" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>431</v>
+      </c>
+      <c r="H24" t="s">
+        <v>474</v>
+      </c>
+      <c r="I24" t="s">
+        <v>403</v>
+      </c>
+      <c r="J24" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25">
         <v>21330051920131</v>
       </c>
       <c r="B25" t="s">
-        <v>232</v>
+        <v>336</v>
       </c>
       <c r="C25" t="s">
-        <v>247</v>
+        <v>351</v>
       </c>
       <c r="D25" t="s">
         <v>90</v>
       </c>
       <c r="E25" t="s">
-        <v>300</v>
+        <v>404</v>
       </c>
       <c r="F25" t="s">
-        <v>328</v>
+        <v>432</v>
       </c>
       <c r="G25" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>451</v>
+      </c>
+      <c r="H25" t="s">
+        <v>475</v>
+      </c>
+      <c r="I25" t="s">
+        <v>495</v>
+      </c>
+      <c r="J25" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26">
         <v>18330051920377</v>
       </c>
       <c r="B26" t="s">
-        <v>233</v>
+        <v>337</v>
       </c>
       <c r="C26" t="s">
-        <v>248</v>
+        <v>352</v>
       </c>
       <c r="D26" t="s">
-        <v>272</v>
+        <v>376</v>
       </c>
       <c r="E26" t="s">
-        <v>301</v>
+        <v>405</v>
       </c>
       <c r="F26" t="s">
-        <v>329</v>
+        <v>433</v>
       </c>
       <c r="G26" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>433</v>
+      </c>
+      <c r="H26" t="s">
+        <v>476</v>
+      </c>
+      <c r="I26" t="s">
+        <v>496</v>
+      </c>
+      <c r="J26" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27">
         <v>21330051920132</v>
       </c>
@@ -3023,79 +4106,115 @@
         <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>249</v>
+        <v>353</v>
       </c>
       <c r="D27" t="s">
-        <v>273</v>
+        <v>377</v>
       </c>
       <c r="E27" t="s">
-        <v>302</v>
+        <v>406</v>
       </c>
       <c r="F27" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>434</v>
+      </c>
+      <c r="H27" t="s">
+        <v>477</v>
+      </c>
+      <c r="I27" t="s">
+        <v>497</v>
+      </c>
+      <c r="J27" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28">
         <v>20330051920152</v>
       </c>
       <c r="B28" t="s">
-        <v>234</v>
+        <v>338</v>
       </c>
       <c r="C28" t="s">
-        <v>220</v>
+        <v>324</v>
       </c>
       <c r="D28" t="s">
-        <v>274</v>
+        <v>378</v>
       </c>
       <c r="E28" t="s">
-        <v>303</v>
+        <v>407</v>
       </c>
       <c r="F28" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>435</v>
+      </c>
+      <c r="H28" t="s">
+        <v>478</v>
+      </c>
+      <c r="I28" t="s">
+        <v>498</v>
+      </c>
+      <c r="J28" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29">
         <v>21330051920133</v>
       </c>
       <c r="B29" t="s">
-        <v>235</v>
+        <v>339</v>
       </c>
       <c r="C29" t="s">
-        <v>229</v>
+        <v>333</v>
       </c>
       <c r="D29" t="s">
-        <v>275</v>
+        <v>379</v>
       </c>
       <c r="E29" t="s">
-        <v>304</v>
+        <v>408</v>
       </c>
       <c r="F29" t="s">
-        <v>332</v>
+        <v>436</v>
       </c>
       <c r="G29" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>436</v>
+      </c>
+      <c r="H29" t="s">
+        <v>479</v>
+      </c>
+      <c r="I29" t="s">
+        <v>499</v>
+      </c>
+      <c r="J29" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30">
         <v>21330051920134</v>
       </c>
       <c r="B30" t="s">
-        <v>236</v>
+        <v>340</v>
       </c>
       <c r="C30" t="s">
-        <v>250</v>
+        <v>354</v>
       </c>
       <c r="D30" t="s">
-        <v>276</v>
+        <v>380</v>
       </c>
       <c r="E30" t="s">
-        <v>305</v>
+        <v>409</v>
       </c>
       <c r="F30" t="s">
-        <v>333</v>
+        <v>437</v>
+      </c>
+      <c r="H30" t="s">
+        <v>480</v>
+      </c>
+      <c r="I30" t="s">
+        <v>500</v>
+      </c>
+      <c r="J30" t="s">
+        <v>520</v>
       </c>
     </row>
   </sheetData>
